--- a/outputs_decision/outputs/tables_by_country/Permanent_water_seasonal_area.xlsx
+++ b/outputs_decision/outputs/tables_by_country/Permanent_water_seasonal_area.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S266"/>
+  <dimension ref="A1:S279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -578,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -641,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>242</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5">
@@ -789,17 +789,39 @@
       <c r="H6" t="n">
         <v>189.6378227725543</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -834,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -849,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
@@ -893,17 +915,39 @@
       <c r="H8" t="n">
         <v>26.33903431825534</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -938,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -965,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -1013,22 +1057,22 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S10" t="n">
-        <v>294</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11">
@@ -1091,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="12">
@@ -1142,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1186,17 +1230,39 @@
       <c r="H13" t="n">
         <v>12.83078660578839</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1227,17 +1293,39 @@
       <c r="H14" t="n">
         <v>139.8357179369693</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1272,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1287,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1331,17 +1419,39 @@
       <c r="H16" t="n">
         <v>24.12179153706533</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1372,17 +1482,39 @@
       <c r="H17" t="n">
         <v>72.05256261967938</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1413,17 +1545,39 @@
       <c r="H18" t="n">
         <v>40.9434099218142</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1514,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -1577,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -1652,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1688,16 +1842,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1709,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -1766,19 +1920,19 @@
         <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P24" t="n">
         <v>13</v>
       </c>
       <c r="Q24" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="R24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S24" t="n">
-        <v>1010</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="25">
@@ -1810,17 +1964,39 @@
       <c r="H25" t="n">
         <v>9.211518657117031</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1870,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1914,17 +2090,39 @@
       <c r="H27" t="n">
         <v>54.38387666499192</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1955,17 +2153,39 @@
       <c r="H28" t="n">
         <v>57.04225917506229</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2015,19 +2235,19 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -2078,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -2122,17 +2342,39 @@
       <c r="H31" t="n">
         <v>70.52587691499387</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2182,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
@@ -2245,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -2308,19 +2550,19 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -2371,19 +2613,19 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1278</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="36">
@@ -2523,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2538,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -2649,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2664,19 +2906,19 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>131</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41">
@@ -2712,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2724,22 +2966,22 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42">
@@ -2775,7 +3017,7 @@
         <v>10</v>
       </c>
       <c r="J42" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2787,22 +3029,22 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" t="n">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="P42" t="n">
         <v>6</v>
       </c>
       <c r="Q42" t="n">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="R42" t="n">
         <v>8</v>
       </c>
       <c r="S42" t="n">
-        <v>1023</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="43">
@@ -2935,19 +3177,19 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>77</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -2979,17 +3221,39 @@
       <c r="H46" t="n">
         <v>119.4533668133575</v>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3020,17 +3284,39 @@
       <c r="H47" t="n">
         <v>114.2587638632426</v>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3080,19 +3366,19 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49">
@@ -3128,14 +3414,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>3</v>
       </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2</v>
-      </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
@@ -3143,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="R49" t="n">
         <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>133</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50">
@@ -3247,19 +3533,19 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -3310,19 +3596,19 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -3417,17 +3703,39 @@
       <c r="H54" t="n">
         <v>41.45872617080824</v>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3483,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -3540,19 +3848,19 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -3615,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3647,17 +3955,39 @@
       <c r="H58" t="n">
         <v>202.1712691796541</v>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3688,17 +4018,39 @@
       <c r="H59" t="n">
         <v>37.86312532401675</v>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3748,19 +4100,19 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
@@ -3823,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -3874,19 +4226,19 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3922,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3937,19 +4289,19 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q63" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="R63" t="n">
         <v>2</v>
       </c>
       <c r="S63" t="n">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64">
@@ -3985,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -4000,19 +4352,19 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
@@ -4069,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -4293,19 +4645,19 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -4356,19 +4708,19 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71">
@@ -4419,19 +4771,19 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4473,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -4482,19 +4834,19 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
@@ -4542,22 +4894,22 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -4630,17 +4982,39 @@
       <c r="H75" t="n">
         <v>166.5038248942827</v>
       </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>4</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4690,19 +5064,19 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77">
@@ -4738,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4753,19 +5127,19 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -4797,17 +5171,39 @@
       <c r="H78" t="n">
         <v>11.44348933861458</v>
       </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4857,19 +5253,19 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
@@ -4905,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -4920,19 +5316,19 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81">
@@ -4964,17 +5360,39 @@
       <c r="H81" t="n">
         <v>206.0417264223543</v>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5005,17 +5423,39 @@
       <c r="H82" t="n">
         <v>7815.925862496659</v>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -5071,13 +5511,13 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -5172,17 +5612,39 @@
       <c r="H85" t="n">
         <v>92.78255747285642</v>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5213,17 +5675,39 @@
       <c r="H86" t="n">
         <v>84.69047880237287</v>
       </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5254,17 +5738,39 @@
       <c r="H87" t="n">
         <v>222.8784265378706</v>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5299,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -5320,13 +5826,13 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
@@ -5362,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -5377,19 +5883,19 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
@@ -5440,19 +5946,19 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
@@ -5515,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -5588,17 +6094,39 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5648,19 +6176,19 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -5692,17 +6220,39 @@
       <c r="H95" t="n">
         <v>16.79731815011111</v>
       </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5758,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -5878,19 +6428,19 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>308</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99">
@@ -5941,19 +6491,19 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100">
@@ -5989,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K100" t="n">
         <v>2</v>
@@ -6004,19 +6554,19 @@
         <v>1</v>
       </c>
       <c r="O100" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>171</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101">
@@ -6067,19 +6617,19 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102">
@@ -6121,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -6130,19 +6680,19 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -6174,17 +6724,39 @@
       <c r="H103" t="n">
         <v>36.03902163581434</v>
       </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -6234,19 +6806,19 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105">
@@ -6255,7 +6827,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cï¿½te d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6297,19 +6869,19 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106">
@@ -6435,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
@@ -6471,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -6486,19 +7058,19 @@
         <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
       </c>
       <c r="Q108" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>220</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109">
@@ -6540,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -6549,19 +7121,19 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -6594,37 +7166,37 @@
         <v>24.10093116128229</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
+        <v>5</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>33</v>
+      </c>
+      <c r="P110" t="n">
         <v>2</v>
       </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>19</v>
-      </c>
-      <c r="P110" t="n">
-        <v>0</v>
-      </c>
       <c r="Q110" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111">
@@ -6675,19 +7247,19 @@
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
       </c>
       <c r="Q111" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
@@ -6750,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
@@ -6782,17 +7354,39 @@
       <c r="H113" t="n">
         <v>112.7383728304742</v>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>2</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>2</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6842,19 +7436,19 @@
         <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
       </c>
       <c r="Q114" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115">
@@ -6905,19 +7499,19 @@
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R115" t="n">
         <v>1</v>
       </c>
       <c r="S115" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116">
@@ -6949,17 +7543,39 @@
       <c r="H116" t="n">
         <v>11.65224726630197</v>
       </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -7021,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -7084,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
@@ -7141,13 +7757,13 @@
         <v>0</v>
       </c>
       <c r="Q119" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R119" t="n">
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -7198,19 +7814,19 @@
         <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P120" t="n">
         <v>1</v>
       </c>
       <c r="Q120" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R120" t="n">
         <v>3</v>
       </c>
       <c r="S120" t="n">
-        <v>122</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121">
@@ -7242,17 +7858,39 @@
       <c r="H121" t="n">
         <v>93.94916449137445</v>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>1</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -7302,19 +7940,19 @@
         <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R122" t="n">
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
@@ -7346,17 +7984,39 @@
       <c r="H123" t="n">
         <v>53.96762207202966</v>
       </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
+      <c r="S123" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7387,17 +8047,39 @@
       <c r="H124" t="n">
         <v>20.12410045067499</v>
       </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7495,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -7510,19 +8192,19 @@
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P126" t="n">
         <v>0</v>
       </c>
       <c r="Q126" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127">
@@ -7558,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -7573,19 +8255,19 @@
         <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P127" t="n">
         <v>0</v>
       </c>
       <c r="Q127" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128">
@@ -7662,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -7677,19 +8359,19 @@
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
       </c>
       <c r="Q129" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="R129" t="n">
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>128</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130">
@@ -7721,17 +8403,39 @@
       <c r="H130" t="n">
         <v>51.33182890894044</v>
       </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
+      <c r="S130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7762,17 +8466,39 @@
       <c r="H131" t="n">
         <v>115.8196974919444</v>
       </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>1</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
+      <c r="S131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7822,19 +8548,19 @@
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
       </c>
       <c r="Q132" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R132" t="n">
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>115</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133">
@@ -7911,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K134" t="n">
         <v>1</v>
@@ -7932,13 +8658,13 @@
         <v>0</v>
       </c>
       <c r="Q134" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R134" t="n">
         <v>1</v>
       </c>
       <c r="S134" t="n">
-        <v>260</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135">
@@ -7970,17 +8696,39 @@
       <c r="H135" t="n">
         <v>564.4968841454554</v>
       </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -8012,7 +8760,7 @@
         <v>58.89918346926426</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -8030,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="P136" t="n">
         <v>0</v>
       </c>
       <c r="Q136" t="n">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="R136" t="n">
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>132</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137">
@@ -8105,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -8137,17 +8885,39 @@
       <c r="H138" t="n">
         <v>3.005337459245482</v>
       </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>1</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
+      <c r="S138" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -8178,17 +8948,39 @@
       <c r="H139" t="n">
         <v>-21.54393783762045</v>
       </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
+      <c r="S139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -8238,19 +9030,19 @@
         <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P140" t="n">
         <v>0</v>
       </c>
       <c r="Q140" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R140" t="n">
         <v>0</v>
       </c>
       <c r="S140" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141">
@@ -8301,19 +9093,19 @@
         <v>0</v>
       </c>
       <c r="O141" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P141" t="n">
         <v>0</v>
       </c>
       <c r="Q141" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="R141" t="n">
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142">
@@ -8349,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -8364,19 +9156,19 @@
         <v>0</v>
       </c>
       <c r="O142" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P142" t="n">
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R142" t="n">
         <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143">
@@ -8427,19 +9219,19 @@
         <v>0</v>
       </c>
       <c r="O143" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P143" t="n">
         <v>0</v>
       </c>
       <c r="Q143" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R143" t="n">
         <v>0</v>
       </c>
       <c r="S143" t="n">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144">
@@ -8471,17 +9263,39 @@
       <c r="H144" t="n">
         <v>614014.697813557</v>
       </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8531,19 +9345,19 @@
         <v>0</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P145" t="n">
         <v>0</v>
       </c>
       <c r="Q145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R145" t="n">
         <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146">
@@ -8594,19 +9408,19 @@
         <v>0</v>
       </c>
       <c r="O146" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P146" t="n">
         <v>0</v>
       </c>
       <c r="Q146" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R146" t="n">
         <v>0</v>
       </c>
       <c r="S146" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
@@ -8615,7 +9429,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Curaï¿½ao</t>
+          <t>Curaçao</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -8638,17 +9452,39 @@
       <c r="H147" t="n">
         <v>155.0888114592593</v>
       </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
+      <c r="S147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -8679,17 +9515,39 @@
       <c r="H148" t="n">
         <v>150.5569285365638</v>
       </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>1</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
+      <c r="S148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -8720,17 +9578,39 @@
       <c r="H149" t="n">
         <v>7.928874960332645</v>
       </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
+      <c r="S149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -8824,17 +9704,39 @@
       <c r="H151" t="n">
         <v>153.9435124550276</v>
       </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>1</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
+      <c r="S151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -8896,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153">
@@ -8932,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -8947,19 +9849,19 @@
         <v>0</v>
       </c>
       <c r="O153" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P153" t="n">
         <v>0</v>
       </c>
       <c r="Q153" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R153" t="n">
         <v>0</v>
       </c>
       <c r="S153" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
@@ -8995,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -9010,19 +9912,19 @@
         <v>0</v>
       </c>
       <c r="O154" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="P154" t="n">
         <v>0</v>
       </c>
       <c r="Q154" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="R154" t="n">
         <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>109</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155">
@@ -9064,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M155" t="n">
         <v>0</v>
@@ -9073,19 +9975,19 @@
         <v>0</v>
       </c>
       <c r="O155" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P155" t="n">
         <v>0</v>
       </c>
       <c r="Q155" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="R155" t="n">
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156">
@@ -9240,19 +10142,19 @@
         <v>0</v>
       </c>
       <c r="O158" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="P158" t="n">
         <v>0</v>
       </c>
       <c r="Q158" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="R158" t="n">
         <v>0</v>
       </c>
       <c r="S158" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="159">
@@ -9284,17 +10186,39 @@
       <c r="H159" t="n">
         <v>230.2065528542354</v>
       </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
+      <c r="S159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -9325,17 +10249,39 @@
       <c r="H160" t="n">
         <v>325.9588939536974</v>
       </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
+      <c r="S160" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -9366,17 +10312,39 @@
       <c r="H161" t="n">
         <v>398.4924820763532</v>
       </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
+      <c r="S161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -9407,17 +10375,39 @@
       <c r="H162" t="n">
         <v>138.3681864212447</v>
       </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>1</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
+      <c r="S162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -9452,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -9467,19 +10457,19 @@
         <v>0</v>
       </c>
       <c r="O163" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P163" t="n">
         <v>0</v>
       </c>
       <c r="Q163" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="R163" t="n">
         <v>0</v>
       </c>
       <c r="S163" t="n">
-        <v>89</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164">
@@ -9530,19 +10520,19 @@
         <v>0</v>
       </c>
       <c r="O164" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P164" t="n">
         <v>0</v>
       </c>
       <c r="Q164" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R164" t="n">
         <v>0</v>
       </c>
       <c r="S164" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165">
@@ -9593,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="O165" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P165" t="n">
         <v>0</v>
       </c>
       <c r="Q165" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="R165" t="n">
         <v>0</v>
       </c>
       <c r="S165" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166">
@@ -9656,19 +10646,19 @@
         <v>0</v>
       </c>
       <c r="O166" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P166" t="n">
         <v>0</v>
       </c>
       <c r="Q166" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R166" t="n">
         <v>1</v>
       </c>
       <c r="S166" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167">
@@ -9719,19 +10709,19 @@
         <v>0</v>
       </c>
       <c r="O167" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P167" t="n">
         <v>0</v>
       </c>
       <c r="Q167" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R167" t="n">
         <v>0</v>
       </c>
       <c r="S167" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="168">
@@ -9794,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169">
@@ -9892,13 +10882,13 @@
         <v>0</v>
       </c>
       <c r="Q170" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R170" t="n">
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171">
@@ -9961,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -10012,19 +11002,19 @@
         <v>0</v>
       </c>
       <c r="O172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P172" t="n">
         <v>0</v>
       </c>
       <c r="Q172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R172" t="n">
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173">
@@ -10056,17 +11046,39 @@
       <c r="H173" t="n">
         <v>4.381483831589108</v>
       </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
+      <c r="S173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -10097,17 +11109,39 @@
       <c r="H174" t="n">
         <v>40.03711561304738</v>
       </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>1</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
+      <c r="S174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -10138,17 +11172,39 @@
       <c r="H175" t="n">
         <v>77.90072870611834</v>
       </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>1</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
+      <c r="S175" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -10156,7 +11212,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Reunion</t>
+          <t>Réunion</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -10224,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -10245,13 +11301,13 @@
         <v>0</v>
       </c>
       <c r="Q177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R177" t="n">
         <v>0</v>
       </c>
       <c r="S177" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178">
@@ -10287,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -10302,19 +11358,19 @@
         <v>2</v>
       </c>
       <c r="O178" t="n">
-        <v>662</v>
+        <v>688</v>
       </c>
       <c r="P178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q178" t="n">
-        <v>1051</v>
+        <v>1121</v>
       </c>
       <c r="R178" t="n">
         <v>2</v>
       </c>
       <c r="S178" t="n">
-        <v>1958</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="179">
@@ -10346,17 +11402,39 @@
       <c r="H179" t="n">
         <v>56.37592929062228</v>
       </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>2</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>6</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
+      <c r="S179" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -10364,7 +11442,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Saint Barthï¿½lemy</t>
+          <t>Saint Barthélemy</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -10387,17 +11465,39 @@
       <c r="H180" t="n">
         <v>22.05651936360647</v>
       </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
+      <c r="S180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -10469,17 +11569,39 @@
       <c r="H182" t="n">
         <v>30.47984298741349</v>
       </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
+      <c r="S182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -10510,17 +11632,39 @@
       <c r="H183" t="n">
         <v>28.84077992685499</v>
       </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
+      <c r="S183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -10551,17 +11695,39 @@
       <c r="H184" t="n">
         <v>84.10994272013031</v>
       </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>1</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
+      <c r="S184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -10592,17 +11758,39 @@
       <c r="H185" t="n">
         <v>39.35679733281544</v>
       </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>1</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
+      <c r="S185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -10633,17 +11821,39 @@
       <c r="H186" t="n">
         <v>35.28953418254002</v>
       </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
+      <c r="S186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -10674,17 +11884,39 @@
       <c r="H187" t="n">
         <v>49.20051865614957</v>
       </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -10715,17 +11947,39 @@
       <c r="H188" t="n">
         <v>136.373060292192</v>
       </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
+      <c r="S188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -10756,17 +12010,39 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
+      <c r="S189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -10801,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -10816,19 +12092,19 @@
         <v>0</v>
       </c>
       <c r="O190" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P190" t="n">
         <v>0</v>
       </c>
       <c r="Q190" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="R190" t="n">
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>202</v>
+        <v>278</v>
       </c>
     </row>
     <row r="191">
@@ -10879,19 +12155,19 @@
         <v>0</v>
       </c>
       <c r="O191" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P191" t="n">
         <v>0</v>
       </c>
       <c r="Q191" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S191" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="192">
@@ -10942,19 +12218,19 @@
         <v>0</v>
       </c>
       <c r="O192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P192" t="n">
         <v>0</v>
       </c>
       <c r="Q192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R192" t="n">
         <v>0</v>
       </c>
       <c r="S192" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193">
@@ -11005,19 +12281,19 @@
         <v>0</v>
       </c>
       <c r="O193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P193" t="n">
         <v>0</v>
       </c>
       <c r="Q193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R193" t="n">
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -11068,19 +12344,19 @@
         <v>0</v>
       </c>
       <c r="O194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P194" t="n">
         <v>0</v>
       </c>
       <c r="Q194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R194" t="n">
         <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195">
@@ -11112,17 +12388,39 @@
       <c r="H195" t="n">
         <v>40.31626143232862</v>
       </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>1</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
+      <c r="S195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -11184,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
@@ -11220,13 +12518,13 @@
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M197" t="n">
         <v>0</v>
@@ -11235,19 +12533,19 @@
         <v>0</v>
       </c>
       <c r="O197" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P197" t="n">
         <v>0</v>
       </c>
       <c r="Q197" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="R197" t="n">
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198">
@@ -11279,17 +12577,39 @@
       <c r="H198" t="n">
         <v>9.306647057392189</v>
       </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr"/>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
+      <c r="S198" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -11324,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -11339,19 +12659,19 @@
         <v>1</v>
       </c>
       <c r="O199" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P199" t="n">
         <v>0</v>
       </c>
       <c r="Q199" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R199" t="n">
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="200">
@@ -11402,19 +12722,19 @@
         <v>0</v>
       </c>
       <c r="O200" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q200" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="R200" t="n">
         <v>1</v>
       </c>
       <c r="S200" t="n">
-        <v>141</v>
+        <v>203</v>
       </c>
     </row>
     <row r="201">
@@ -11471,13 +12791,13 @@
         <v>0</v>
       </c>
       <c r="Q201" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R201" t="n">
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202">
@@ -11528,19 +12848,19 @@
         <v>0</v>
       </c>
       <c r="O202" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P202" t="n">
         <v>0</v>
       </c>
       <c r="Q202" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R202" t="n">
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203">
@@ -11576,7 +12896,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -11591,19 +12911,19 @@
         <v>0</v>
       </c>
       <c r="O203" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="P203" t="n">
         <v>0</v>
       </c>
       <c r="Q203" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="R203" t="n">
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="204">
@@ -11639,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -11648,25 +12968,25 @@
         <v>0</v>
       </c>
       <c r="M204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N204" t="n">
         <v>0</v>
       </c>
       <c r="O204" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P204" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q204" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="R204" t="n">
         <v>4</v>
       </c>
       <c r="S204" t="n">
-        <v>166</v>
+        <v>244</v>
       </c>
     </row>
     <row r="205">
@@ -11717,19 +13037,19 @@
         <v>0</v>
       </c>
       <c r="O205" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P205" t="n">
         <v>0</v>
       </c>
       <c r="Q205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R205" t="n">
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="206">
@@ -11780,19 +13100,19 @@
         <v>0</v>
       </c>
       <c r="O206" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P206" t="n">
         <v>0</v>
       </c>
       <c r="Q206" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R206" t="n">
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207">
@@ -11915,10 +13235,10 @@
         <v>1</v>
       </c>
       <c r="R208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S208" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209">
@@ -11969,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="O209" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P209" t="n">
         <v>0</v>
       </c>
       <c r="Q209" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="R209" t="n">
         <v>0</v>
       </c>
       <c r="S209" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210">
@@ -12013,17 +13333,39 @@
       <c r="H210" t="n">
         <v>49.99013929572728</v>
       </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr"/>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" t="n">
+        <v>3</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>4</v>
+      </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
+      <c r="S210" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -12064,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="L211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M211" t="n">
         <v>0</v>
@@ -12073,19 +13415,19 @@
         <v>0</v>
       </c>
       <c r="O211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P211" t="n">
         <v>0</v>
       </c>
       <c r="Q211" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R211" t="n">
         <v>0</v>
       </c>
       <c r="S211" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212">
@@ -12121,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K212" t="n">
         <v>0</v>
@@ -12136,19 +13478,19 @@
         <v>0</v>
       </c>
       <c r="O212" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P212" t="n">
         <v>0</v>
       </c>
       <c r="Q212" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R212" t="n">
         <v>0</v>
       </c>
       <c r="S212" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="213">
@@ -12184,7 +13526,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K213" t="n">
         <v>0</v>
@@ -12205,13 +13547,13 @@
         <v>0</v>
       </c>
       <c r="Q213" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R213" t="n">
         <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="214">
@@ -12243,17 +13585,39 @@
       <c r="H214" t="n">
         <v>90.73756581976046</v>
       </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
-      <c r="N214" t="inlineStr"/>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>2</v>
+      </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
+      <c r="S214" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -12366,17 +13730,39 @@
       <c r="H217" t="n">
         <v>50.66989615885065</v>
       </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="inlineStr"/>
-      <c r="N217" t="inlineStr"/>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
+      <c r="S217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -12426,19 +13812,19 @@
         <v>0</v>
       </c>
       <c r="O218" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P218" t="n">
         <v>0</v>
       </c>
       <c r="Q218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R218" t="n">
         <v>0</v>
       </c>
       <c r="S218" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219">
@@ -12489,19 +13875,19 @@
         <v>0</v>
       </c>
       <c r="O219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P219" t="n">
         <v>0</v>
       </c>
       <c r="Q219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R219" t="n">
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220">
@@ -12510,7 +13896,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -12537,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K220" t="n">
         <v>0</v>
@@ -12552,19 +13938,19 @@
         <v>0</v>
       </c>
       <c r="O220" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P220" t="n">
         <v>0</v>
       </c>
       <c r="Q220" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="R220" t="n">
         <v>0</v>
       </c>
       <c r="S220" t="n">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="221">
@@ -12600,7 +13986,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K221" t="n">
         <v>0</v>
@@ -12615,19 +14001,19 @@
         <v>0</v>
       </c>
       <c r="O221" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P221" t="n">
         <v>0</v>
       </c>
       <c r="Q221" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="R221" t="n">
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="222">
@@ -12659,17 +14045,39 @@
       <c r="H222" t="n">
         <v>18.0911456035414</v>
       </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr"/>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
+      <c r="S222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -12700,17 +14108,39 @@
       <c r="H223" t="n">
         <v>6.998586878903414</v>
       </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr"/>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
+      <c r="S223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -12745,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -12760,19 +14190,19 @@
         <v>0</v>
       </c>
       <c r="O224" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P224" t="n">
         <v>0</v>
       </c>
       <c r="Q224" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R224" t="n">
         <v>0</v>
       </c>
       <c r="S224" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="225">
@@ -12817,25 +14247,25 @@
         <v>0</v>
       </c>
       <c r="M225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N225" t="n">
         <v>0</v>
       </c>
       <c r="O225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P225" t="n">
         <v>0</v>
       </c>
       <c r="Q225" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R225" t="n">
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="226">
@@ -12867,17 +14297,39 @@
       <c r="H226" t="n">
         <v>22.40338601896758</v>
       </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr"/>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
+      <c r="S226" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -12927,19 +14379,19 @@
         <v>0</v>
       </c>
       <c r="O227" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P227" t="n">
         <v>0</v>
       </c>
       <c r="Q227" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R227" t="n">
         <v>0</v>
       </c>
       <c r="S227" t="n">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="228">
@@ -12981,7 +14433,7 @@
         <v>0</v>
       </c>
       <c r="L228" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M228" t="n">
         <v>0</v>
@@ -12990,19 +14442,19 @@
         <v>0</v>
       </c>
       <c r="O228" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P228" t="n">
         <v>0</v>
       </c>
       <c r="Q228" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R228" t="n">
         <v>0</v>
       </c>
       <c r="S228" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="229">
@@ -13034,17 +14486,39 @@
       <c r="H229" t="n">
         <v>37.21476334078955</v>
       </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr"/>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
+      <c r="S229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -13075,17 +14549,39 @@
       <c r="H230" t="n">
         <v>80.95840893114423</v>
       </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr"/>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>1</v>
+      </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
+      <c r="S230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -13183,13 +14679,13 @@
         <v>1</v>
       </c>
       <c r="J232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M232" t="n">
         <v>1</v>
@@ -13198,19 +14694,19 @@
         <v>0</v>
       </c>
       <c r="O232" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P232" t="n">
         <v>0</v>
       </c>
       <c r="Q232" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R232" t="n">
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>94</v>
+        <v>142</v>
       </c>
     </row>
     <row r="233">
@@ -13261,19 +14757,19 @@
         <v>2</v>
       </c>
       <c r="O233" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="P233" t="n">
         <v>1</v>
       </c>
       <c r="Q233" t="n">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="R233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S233" t="n">
-        <v>1112</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="234">
@@ -13305,17 +14801,39 @@
       <c r="H234" t="n">
         <v>79.06089861411348</v>
       </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>1</v>
+      </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
+      <c r="S234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -13347,10 +14865,10 @@
         <v>67.51758079839819</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -13365,19 +14883,19 @@
         <v>0</v>
       </c>
       <c r="O235" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="P235" t="n">
         <v>0</v>
       </c>
       <c r="Q235" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="R235" t="n">
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="236">
@@ -13437,10 +14955,10 @@
         <v>1</v>
       </c>
       <c r="R236" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S236" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="237">
@@ -13476,7 +14994,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -13491,19 +15009,19 @@
         <v>0</v>
       </c>
       <c r="O237" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P237" t="n">
         <v>0</v>
       </c>
       <c r="Q237" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="R237" t="n">
         <v>1</v>
       </c>
       <c r="S237" t="n">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="238">
@@ -13548,25 +15066,25 @@
         <v>2</v>
       </c>
       <c r="M238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N238" t="n">
         <v>0</v>
       </c>
       <c r="O238" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P238" t="n">
         <v>0</v>
       </c>
       <c r="Q238" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R238" t="n">
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="239">
@@ -13684,7 +15202,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -13699,19 +15217,19 @@
         <v>0</v>
       </c>
       <c r="O241" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P241" t="n">
         <v>0</v>
       </c>
       <c r="Q241" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R241" t="n">
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="242">
@@ -13747,7 +15265,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -13762,35 +15280,27 @@
         <v>0</v>
       </c>
       <c r="O242" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P242" t="n">
         <v>0</v>
       </c>
       <c r="Q242" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="R242" t="n">
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>58</v>
+        <v>124</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Taiwan</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
-        </is>
-      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
       <c r="D243" t="n">
         <v>1.633095015806036</v>
       </c>
@@ -13820,32 +15330,28 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Aksai Chin</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
-        </is>
-      </c>
+          <t>Azores Islands</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
       <c r="D244" t="n">
-        <v>-28.52887990771781</v>
+        <v>-38.94757625825228</v>
       </c>
       <c r="E244" t="n">
-        <v>-10.75461333762621</v>
+        <v>-80.07641812343664</v>
       </c>
       <c r="F244" t="n">
-        <v>-4.666497491224582</v>
+        <v>-66.46571273800126</v>
       </c>
       <c r="G244" t="n">
-        <v>86.59269920184781</v>
+        <v>121.9166625790302</v>
       </c>
       <c r="H244" t="n">
-        <v>109.2574194773987</v>
+        <v>94.6191064628876</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -13861,139 +15367,201 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Central Asia (M49) and Southern Asia (MDG=M49)</t>
-        </is>
-      </c>
+          <t>Canary Islands</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="n">
-        <v>-9.052991674930754</v>
+        <v>-5.264497587916772</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.3881109426749872</v>
+        <v>-29.23868413147907</v>
       </c>
       <c r="F245" t="n">
-        <v>0.3881109426750051</v>
+        <v>3.021524158848611</v>
       </c>
       <c r="G245" t="n">
-        <v>30.62066727212027</v>
+        <v>60.7922033247296</v>
       </c>
       <c r="H245" t="n">
-        <v>37.86505741844922</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr"/>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="inlineStr"/>
+        <v>65.33241234474309</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>1</v>
+      </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
+      <c r="S245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Ashmore and Cartier Islands</t>
+          <t>Aksai Chin</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Australia and New Zealand (M49)</t>
+          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>-28.52887990771781</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>-10.75461333762621</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>-4.666497491224582</v>
       </c>
       <c r="G246" t="n">
-        <v>83864.47549998398</v>
+        <v>86.59269920184781</v>
       </c>
       <c r="H246" t="n">
-        <v>110129.873962233</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
-      <c r="N246" t="inlineStr"/>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="inlineStr"/>
+        <v>109.2574194773987</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="n">
+        <v>4</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>4</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
+      <c r="S246" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Clipperton Island</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Northern America (M49) and Europe (M49)</t>
+          <t>Central Asia (M49) and Southern Asia (MDG=M49)</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>-9.052991674930754</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>-0.3881109426749872</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>0.3881109426750051</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>30.62066727212027</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr"/>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="inlineStr"/>
+        <v>37.86505741844922</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="n">
+        <v>7</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>9</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
+      <c r="S247" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Europa Island</t>
+          <t>Ashmore and Cartier Islands</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa (M49)</t>
+          <t>Australia and New Zealand (M49)</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -14006,10 +15574,10 @@
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>83864.47549998398</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>110129.873962233</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -14047,32 +15615,28 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Gaza</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Western Asia (M49) and Northern Africa (M49)</t>
-        </is>
-      </c>
+          <t>Baker Island</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
       <c r="D249" t="n">
-        <v>-7.640207981853828</v>
+        <v>0</v>
       </c>
       <c r="E249" t="n">
-        <v>12.14290168040742</v>
+        <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>1.600561939535473</v>
+        <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>5.112850977229552</v>
+        <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>19.50913666501122</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -14088,32 +15652,28 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Abyei</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Western Asia (M49) and Northern Africa (M49)</t>
-        </is>
-      </c>
+          <t>Bassas da India</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
       <c r="D250" t="n">
-        <v>-62.63824751968229</v>
+        <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>-3.864855630248981</v>
+        <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>55.1184568544404</v>
+        <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>63.37069668853867</v>
+        <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>319.8016238653497</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -14129,18 +15689,14 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Juan de Nova Island</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa (M49)</t>
-        </is>
-      </c>
+          <t>Bird Island</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
       <c r="D251" t="n">
         <v>0</v>
       </c>
@@ -14156,172 +15712,142 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="n">
-        <v>0</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0</v>
-      </c>
-      <c r="L251" t="n">
-        <v>0</v>
-      </c>
-      <c r="M251" t="n">
-        <v>0</v>
-      </c>
-      <c r="N251" t="n">
-        <v>0</v>
-      </c>
-      <c r="O251" t="n">
-        <v>0</v>
-      </c>
-      <c r="P251" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q251" t="n">
-        <v>0</v>
-      </c>
-      <c r="R251" t="n">
-        <v>0</v>
-      </c>
-      <c r="S251" t="n">
-        <v>1</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="inlineStr"/>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr"/>
+      <c r="R251" t="inlineStr"/>
+      <c r="S251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Kuril Islands</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Northern America (M49) and Europe (M49)</t>
-        </is>
-      </c>
+          <t>Bouvet Island</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
       <c r="D252" t="n">
-        <v>0.6421729371873739</v>
+        <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>-4.956468149552321</v>
+        <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>-20.49528209740123</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>23.9144003593147</v>
+        <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>46.52213431659518</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="n">
-        <v>0</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0</v>
-      </c>
-      <c r="L252" t="n">
-        <v>0</v>
-      </c>
-      <c r="M252" t="n">
-        <v>0</v>
-      </c>
-      <c r="N252" t="n">
-        <v>0</v>
-      </c>
-      <c r="O252" t="n">
-        <v>0</v>
-      </c>
-      <c r="P252" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q252" t="n">
-        <v>2</v>
-      </c>
-      <c r="R252" t="n">
-        <v>0</v>
-      </c>
-      <c r="S252" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr"/>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="inlineStr"/>
+      <c r="S252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Madeira Island</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Northern America (M49) and Europe (M49)</t>
-        </is>
-      </c>
+          <t>China/India</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
       <c r="D253" t="n">
-        <v>-61.87489374413399</v>
+        <v>-25.79806239200336</v>
       </c>
       <c r="E253" t="n">
-        <v>-66.49917511856378</v>
+        <v>-7.98188138636609</v>
       </c>
       <c r="F253" t="n">
-        <v>-15.06449756079612</v>
+        <v>-0.1561281203623221</v>
       </c>
       <c r="G253" t="n">
-        <v>63.07848515110097</v>
+        <v>58.72535899307747</v>
       </c>
       <c r="H253" t="n">
-        <v>76.93080730419621</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="inlineStr"/>
-      <c r="N253" t="inlineStr"/>
-      <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr"/>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="inlineStr"/>
-      <c r="S253" t="inlineStr"/>
+        <v>58.72535899307747</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" t="n">
+        <v>3</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>3</v>
+      </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
+      <c r="S253" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Navassa Island</t>
+          <t>Clipperton Island</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Latin America and the Caribbean (MDG=M49)</t>
+          <t>Northern America (M49) and Europe (M49)</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>17.48332962747767</v>
+        <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>-19.28054386416668</v>
+        <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>26.47091917069846</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>10.32947237108558</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>-7.894688459706057</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -14359,16 +15885,16 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Paracel Islands</t>
+          <t>Europa Island</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+          <t>Sub-Saharan Africa (M49)</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -14381,10 +15907,10 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>148529.340033693</v>
+        <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>148529.340033693</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -14422,100 +15948,140 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Scarborough Reef</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+          <t>Western Asia (M49) and Northern Africa (M49)</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>-7.640207981853828</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>12.14290168040742</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1.600561939535473</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>5.112850977229552</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="inlineStr"/>
-      <c r="N256" t="inlineStr"/>
-      <c r="O256" t="inlineStr"/>
-      <c r="P256" t="inlineStr"/>
-      <c r="Q256" t="inlineStr"/>
-      <c r="R256" t="inlineStr"/>
-      <c r="S256" t="inlineStr"/>
+        <v>19.50913666501122</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
+      <c r="S256" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Senkaku Islands</t>
+          <t>Abyei</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+          <t>Western Asia (M49) and Northern Africa (M49)</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>-62.63824751968229</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>-3.864855630248981</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>55.1184568544404</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>63.37069668853867</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="inlineStr"/>
-      <c r="N257" t="inlineStr"/>
-      <c r="O257" t="inlineStr"/>
-      <c r="P257" t="inlineStr"/>
-      <c r="Q257" t="inlineStr"/>
-      <c r="R257" t="inlineStr"/>
-      <c r="S257" t="inlineStr"/>
+        <v>319.8016238653497</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>2</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>2</v>
+      </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
+      <c r="S257" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Spratly Islands</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
-        </is>
-      </c>
+          <t>Howland Island</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
       <c r="D258" t="n">
         <v>0</v>
       </c>
@@ -14529,56 +16095,30 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>491302.89327335</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="n">
-        <v>0</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0</v>
-      </c>
-      <c r="L258" t="n">
-        <v>0</v>
-      </c>
-      <c r="M258" t="n">
-        <v>0</v>
-      </c>
-      <c r="N258" t="n">
-        <v>0</v>
-      </c>
-      <c r="O258" t="n">
-        <v>0</v>
-      </c>
-      <c r="P258" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q258" t="n">
-        <v>0</v>
-      </c>
-      <c r="R258" t="n">
-        <v>0</v>
-      </c>
-      <c r="S258" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr"/>
+      <c r="S258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Tromelin Island</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa (M49)</t>
-        </is>
-      </c>
+          <t>Jarvis Island</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
       <c r="D259" t="n">
         <v>0</v>
       </c>
@@ -14594,56 +16134,30 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="n">
-        <v>0</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0</v>
-      </c>
-      <c r="L259" t="n">
-        <v>0</v>
-      </c>
-      <c r="M259" t="n">
-        <v>0</v>
-      </c>
-      <c r="N259" t="n">
-        <v>0</v>
-      </c>
-      <c r="O259" t="n">
-        <v>0</v>
-      </c>
-      <c r="P259" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q259" t="n">
-        <v>0</v>
-      </c>
-      <c r="R259" t="n">
-        <v>0</v>
-      </c>
-      <c r="S259" t="n">
-        <v>1</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr"/>
+      <c r="S259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Wake Island</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Oceania (M49) excluding Australia and New Zealand (M49)</t>
-        </is>
-      </c>
+          <t>Johnston Atoll</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
       <c r="D260" t="n">
-        <v>1274125.40845199</v>
+        <v>0</v>
       </c>
       <c r="E260" t="n">
         <v>0</v>
@@ -14671,214 +16185,254 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>West Bank</t>
+          <t>Juan de Nova Island</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Western Asia (M49) and Northern Africa (M49)</t>
+          <t>Sub-Saharan Africa (M49)</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>56.80845777768357</v>
+        <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>-25.53945205585514</v>
+        <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>-20.64217955680902</v>
+        <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>19.72015223153812</v>
+        <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>85.26091237894555</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="inlineStr"/>
-      <c r="N261" t="inlineStr"/>
-      <c r="O261" t="inlineStr"/>
-      <c r="P261" t="inlineStr"/>
-      <c r="Q261" t="inlineStr"/>
-      <c r="R261" t="inlineStr"/>
-      <c r="S261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
+      <c r="S261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Central Asia (M49) and Southern Asia (MDG=M49)</t>
-        </is>
-      </c>
+          <t>Kingman Reef</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
       <c r="D262" t="n">
-        <v>-21.47897395640813</v>
+        <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>-7.096781167829805</v>
+        <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>2.426846341694263</v>
+        <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>36.51728136648988</v>
+        <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>45.21747858187771</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="n">
-        <v>0</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0</v>
-      </c>
-      <c r="L262" t="n">
-        <v>0</v>
-      </c>
-      <c r="M262" t="n">
-        <v>0</v>
-      </c>
-      <c r="N262" t="n">
-        <v>0</v>
-      </c>
-      <c r="O262" t="n">
-        <v>5</v>
-      </c>
-      <c r="P262" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q262" t="n">
-        <v>6</v>
-      </c>
-      <c r="R262" t="n">
-        <v>0</v>
-      </c>
-      <c r="S262" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="inlineStr"/>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="inlineStr"/>
+      <c r="S262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>1068</v>
+        <v>1036</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Saba</t>
+          <t>Kuril Islands</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Latin America and the Caribbean (MDG=M49)</t>
+          <t>Northern America (M49) and Europe (M49)</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>-20.23687013620676</v>
+        <v>0.6421729371873739</v>
       </c>
       <c r="E263" t="n">
-        <v>-0.761906285075564</v>
+        <v>-4.956468149552321</v>
       </c>
       <c r="F263" t="n">
-        <v>8.180761148101128</v>
+        <v>-20.49528209740123</v>
       </c>
       <c r="G263" t="n">
-        <v>14.07567972298252</v>
+        <v>23.9144003593147</v>
       </c>
       <c r="H263" t="n">
-        <v>34.14676693271247</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="inlineStr"/>
-      <c r="N263" t="inlineStr"/>
-      <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr"/>
-      <c r="Q263" t="inlineStr"/>
-      <c r="R263" t="inlineStr"/>
-      <c r="S263" t="inlineStr"/>
+        <v>46.52213431659518</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>2</v>
+      </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
+      <c r="S263" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>1082</v>
+        <v>1038</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Glorioso Islands</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr"/>
+          <t>Madeira Island</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Northern America (M49) and Europe (M49)</t>
+        </is>
+      </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>-61.87489374413399</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>-66.49917511856378</v>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>-15.06449756079612</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>63.07848515110097</v>
       </c>
       <c r="H264" t="n">
-        <v>26288.469089195</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="inlineStr"/>
-      <c r="N264" t="inlineStr"/>
-      <c r="O264" t="inlineStr"/>
-      <c r="P264" t="inlineStr"/>
-      <c r="Q264" t="inlineStr"/>
-      <c r="R264" t="inlineStr"/>
-      <c r="S264" t="inlineStr"/>
+        <v>76.93080730419621</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>1</v>
+      </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
+      <c r="S264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>1097</v>
+        <v>1039</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>French Southern Territories</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa (M49)</t>
-        </is>
-      </c>
+          <t>Midway Islands</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
       <c r="D265" t="n">
-        <v>-41.07415624281232</v>
+        <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>-44.03775384113874</v>
+        <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>12.25915762034723</v>
+        <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>15.53042036917601</v>
+        <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>15.53042036917601</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -14894,44 +16448,811 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Navassa Island</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Latin America and the Caribbean (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>17.48332962747767</v>
+      </c>
+      <c r="E266" t="n">
+        <v>-19.28054386416668</v>
+      </c>
+      <c r="F266" t="n">
+        <v>26.47091917069846</v>
+      </c>
+      <c r="G266" t="n">
+        <v>10.32947237108558</v>
+      </c>
+      <c r="H266" t="n">
+        <v>-7.894688459706057</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
+      <c r="S266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Palmyra Atoll</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr"/>
+      <c r="S267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Paracel Islands</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" t="n">
+        <v>148529.340033693</v>
+      </c>
+      <c r="H268" t="n">
+        <v>148529.340033693</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
+      <c r="S268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Scarborough Reef</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="inlineStr"/>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
+      <c r="R269" t="inlineStr"/>
+      <c r="S269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Senkaku Islands</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
+      <c r="S270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Spratly Islands</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" t="n">
+        <v>491302.89327335</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
+      <c r="S271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Tromelin Island</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa (M49)</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
+      <c r="S272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Wake Island</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Oceania (M49) excluding Australia and New Zealand (M49)</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>1274125.40845199</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
+      <c r="S273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>West Bank</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Western Asia (M49) and Northern Africa (M49)</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>56.80845777768357</v>
+      </c>
+      <c r="E274" t="n">
+        <v>-25.53945205585514</v>
+      </c>
+      <c r="F274" t="n">
+        <v>-20.64217955680902</v>
+      </c>
+      <c r="G274" t="n">
+        <v>19.72015223153812</v>
+      </c>
+      <c r="H274" t="n">
+        <v>85.26091237894555</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
+      <c r="S274" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Central Asia (M49) and Southern Asia (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>-21.47897395640813</v>
+      </c>
+      <c r="E275" t="n">
+        <v>-7.096781167829805</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2.426846341694263</v>
+      </c>
+      <c r="G275" t="n">
+        <v>36.51728136648988</v>
+      </c>
+      <c r="H275" t="n">
+        <v>45.21747858187771</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0</v>
+      </c>
+      <c r="O275" t="n">
+        <v>14</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>16</v>
+      </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
+      <c r="S275" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Saba</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Latin America and the Caribbean (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>-20.23687013620676</v>
+      </c>
+      <c r="E276" t="n">
+        <v>-0.761906285075564</v>
+      </c>
+      <c r="F276" t="n">
+        <v>8.180761148101128</v>
+      </c>
+      <c r="G276" t="n">
+        <v>14.07567972298252</v>
+      </c>
+      <c r="H276" t="n">
+        <v>34.14676693271247</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
+      <c r="S276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Glorioso Islands</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="n">
+        <v>26288.469089195</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
+      <c r="S277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>French Southern Territories</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa (M49)</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>-41.07415624281232</v>
+      </c>
+      <c r="E278" t="n">
+        <v>-44.03775384113874</v>
+      </c>
+      <c r="F278" t="n">
+        <v>12.25915762034723</v>
+      </c>
+      <c r="G278" t="n">
+        <v>15.53042036917601</v>
+      </c>
+      <c r="H278" t="n">
+        <v>15.53042036917601</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr"/>
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr"/>
+      <c r="R278" t="inlineStr"/>
+      <c r="S278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
         <v>1098</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>Akrotiri</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>Western Asia (M49) and Northern Africa (M49)</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D279" t="n">
         <v>-12.00252936958857</v>
       </c>
-      <c r="E266" t="n">
+      <c r="E279" t="n">
         <v>-27.25209001334476</v>
       </c>
-      <c r="F266" t="n">
+      <c r="F279" t="n">
         <v>1.004194806737223</v>
       </c>
-      <c r="G266" t="n">
+      <c r="G279" t="n">
         <v>9.354857053940238</v>
       </c>
-      <c r="H266" t="n">
+      <c r="H279" t="n">
         <v>12.95048972655885</v>
       </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="inlineStr"/>
-      <c r="N266" t="inlineStr"/>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
-      <c r="Q266" t="inlineStr"/>
-      <c r="R266" t="inlineStr"/>
-      <c r="S266" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
+      <c r="S279" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
